--- a/dataanalysis/data/predictions/1000/09230942_0944.xlsx
+++ b/dataanalysis/data/predictions/1000/09230942_0944.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-23</t>
   </si>
   <si>
@@ -428,12 +431,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -791,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,19 +897,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>4.08</v>
@@ -930,7 +930,7 @@
         <v>90322.39</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -972,10 +972,25 @@
         <v>0.2</v>
       </c>
       <c r="X2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y2">
+        <v>3.88</v>
+      </c>
+      <c r="Z2">
+        <v>67.5</v>
+      </c>
+      <c r="AA2">
+        <v>2.47</v>
       </c>
       <c r="AC2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -983,22 +998,25 @@
       <c r="AG2">
         <v>1.694175243377686</v>
       </c>
-      <c r="AH2" t="s">
-        <v>138</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4.14</v>
@@ -1016,7 +1034,7 @@
         <v>18306.24</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1057,8 +1075,23 @@
       <c r="W3">
         <v>0.91</v>
       </c>
+      <c r="Y3">
+        <v>4.29</v>
+      </c>
+      <c r="Z3">
+        <v>20</v>
+      </c>
+      <c r="AA3">
+        <v>4.71</v>
+      </c>
       <c r="AC3" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1066,22 +1099,25 @@
       <c r="AG3">
         <v>1.764586210250854</v>
       </c>
-      <c r="AH3" t="s">
-        <v>138</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300111</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>5.38</v>
@@ -1099,7 +1135,7 @@
         <v>115579.21</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1140,8 +1176,23 @@
       <c r="W4">
         <v>-4.11</v>
       </c>
+      <c r="Y4">
+        <v>20.03</v>
+      </c>
+      <c r="Z4">
+        <v>8.57</v>
+      </c>
+      <c r="AA4">
+        <v>36.68</v>
+      </c>
       <c r="AC4" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1149,22 +1200,25 @@
       <c r="AG4">
         <v>-6.270556926727295</v>
       </c>
-      <c r="AH4" t="s">
-        <v>138</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300115</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-2.36</v>
@@ -1182,7 +1236,7 @@
         <v>261888.13</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1224,10 +1278,25 @@
         <v>-0.04</v>
       </c>
       <c r="X5" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y5">
+        <v>8.93</v>
+      </c>
+      <c r="Z5">
+        <v>41.2</v>
+      </c>
+      <c r="AA5">
+        <v>11.87</v>
       </c>
       <c r="AC5" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1235,22 +1304,25 @@
       <c r="AG5">
         <v>-1.849902987480164</v>
       </c>
-      <c r="AH5" t="s">
-        <v>138</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300139</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4.68</v>
@@ -1268,7 +1340,7 @@
         <v>77906.98</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>11</v>
@@ -1310,10 +1382,25 @@
         <v>0.11</v>
       </c>
       <c r="X6" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y6">
+        <v>0.47</v>
+      </c>
+      <c r="Z6">
+        <v>28.5</v>
+      </c>
+      <c r="AA6">
+        <v>0.35</v>
       </c>
       <c r="AC6" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1321,22 +1408,25 @@
       <c r="AG6">
         <v>3.192546606063843</v>
       </c>
-      <c r="AH6" t="s">
-        <v>138</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300207</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>5.81</v>
@@ -1354,7 +1444,7 @@
         <v>128412.85</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7">
         <v>13</v>
@@ -1395,8 +1485,23 @@
       <c r="W7">
         <v>0.34</v>
       </c>
+      <c r="Y7">
+        <v>3.43</v>
+      </c>
+      <c r="Z7">
+        <v>33.52</v>
+      </c>
+      <c r="AA7">
+        <v>5.24</v>
+      </c>
       <c r="AC7" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1404,22 +1509,25 @@
       <c r="AG7">
         <v>6.135435104370117</v>
       </c>
-      <c r="AH7" t="s">
-        <v>138</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300250</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>14.06</v>
@@ -1437,7 +1545,7 @@
         <v>96508.75999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1478,8 +1586,23 @@
       <c r="W8">
         <v>-1.24</v>
       </c>
+      <c r="Y8">
+        <v>1.75</v>
+      </c>
+      <c r="Z8">
+        <v>28.56</v>
+      </c>
+      <c r="AA8">
+        <v>14.29</v>
+      </c>
       <c r="AC8" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1487,22 +1610,25 @@
       <c r="AG8">
         <v>-23.07929611206055</v>
       </c>
-      <c r="AH8" t="s">
-        <v>138</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300258</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-0.06</v>
@@ -1520,7 +1646,7 @@
         <v>11797.62</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1561,8 +1687,23 @@
       <c r="W9">
         <v>0.05</v>
       </c>
+      <c r="Y9">
+        <v>0.3</v>
+      </c>
+      <c r="Z9">
+        <v>16.61</v>
+      </c>
+      <c r="AA9">
+        <v>-2.12</v>
+      </c>
       <c r="AC9" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1570,22 +1711,25 @@
       <c r="AG9">
         <v>1.572097301483154</v>
       </c>
-      <c r="AH9" t="s">
-        <v>138</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300274</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>7.86</v>
@@ -1603,7 +1747,7 @@
         <v>542589.95</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10">
         <v>15</v>
@@ -1645,10 +1789,25 @@
         <v>0.22</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y10">
+        <v>7.43</v>
+      </c>
+      <c r="Z10">
+        <v>156</v>
+      </c>
+      <c r="AA10">
+        <v>5.4</v>
       </c>
       <c r="AC10" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1656,22 +1815,25 @@
       <c r="AG10">
         <v>0.1479766964912415</v>
       </c>
-      <c r="AH10" t="s">
-        <v>138</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300308</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>4.35</v>
@@ -1689,7 +1851,7 @@
         <v>736083.8100000001</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>51</v>
@@ -1731,10 +1893,25 @@
         <v>0.09</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y11">
+        <v>-2.48</v>
+      </c>
+      <c r="Z11">
+        <v>435</v>
+      </c>
+      <c r="AA11">
+        <v>-0.28</v>
       </c>
       <c r="AC11" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1742,22 +1919,25 @@
       <c r="AG11">
         <v>-0.5319771766662598</v>
       </c>
-      <c r="AH11" t="s">
-        <v>138</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300331</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.09</v>
@@ -1775,7 +1955,7 @@
         <v>29944.87</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12">
         <v>13</v>
@@ -1817,10 +1997,25 @@
         <v>-0.25</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y12">
+        <v>-0.13</v>
+      </c>
+      <c r="Z12">
+        <v>39.39</v>
+      </c>
+      <c r="AA12">
+        <v>3.71</v>
       </c>
       <c r="AC12" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1828,22 +2023,25 @@
       <c r="AG12">
         <v>1.971726655960083</v>
       </c>
-      <c r="AH12" t="s">
-        <v>138</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300450</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.28</v>
@@ -1861,7 +2059,7 @@
         <v>336847.26</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13">
         <v>18</v>
@@ -1903,10 +2101,25 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y13">
+        <v>7.27</v>
+      </c>
+      <c r="Z13">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>11.97</v>
       </c>
       <c r="AC13" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1914,22 +2127,25 @@
       <c r="AG13">
         <v>2.054021120071411</v>
       </c>
-      <c r="AH13" t="s">
-        <v>138</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300457</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.37</v>
@@ -1947,7 +2163,7 @@
         <v>37604.38</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14">
         <v>16</v>
@@ -1989,10 +2205,25 @@
         <v>0.1</v>
       </c>
       <c r="X14" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y14">
+        <v>0.57</v>
+      </c>
+      <c r="Z14">
+        <v>36.6</v>
+      </c>
+      <c r="AA14">
+        <v>4.63</v>
       </c>
       <c r="AC14" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2000,22 +2231,25 @@
       <c r="AG14">
         <v>2.1951003074646</v>
       </c>
-      <c r="AH14" t="s">
-        <v>138</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300475</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.86</v>
@@ -2033,7 +2267,7 @@
         <v>116220.67</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -2075,10 +2309,25 @@
         <v>0.03</v>
       </c>
       <c r="X15" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y15">
+        <v>1.98</v>
+      </c>
+      <c r="Z15">
+        <v>86.66</v>
+      </c>
+      <c r="AA15">
+        <v>0.73</v>
       </c>
       <c r="AC15" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2086,22 +2335,25 @@
       <c r="AG15">
         <v>0.6698150038719177</v>
       </c>
-      <c r="AH15" t="s">
-        <v>138</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300499</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>2.62</v>
@@ -2119,7 +2371,7 @@
         <v>79934.32000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2161,10 +2413,25 @@
         <v>0.31</v>
       </c>
       <c r="X16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y16">
+        <v>-2.75</v>
+      </c>
+      <c r="Z16">
+        <v>32.8</v>
+      </c>
+      <c r="AA16">
+        <v>-3.61</v>
       </c>
       <c r="AC16" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2172,22 +2439,25 @@
       <c r="AG16">
         <v>5.114199638366699</v>
       </c>
-      <c r="AH16" t="s">
-        <v>138</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300507</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.79</v>
@@ -2205,7 +2475,7 @@
         <v>13736.2</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2247,10 +2517,25 @@
         <v>-0.11</v>
       </c>
       <c r="X17" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y17">
+        <v>0.89</v>
+      </c>
+      <c r="Z17">
+        <v>10.38</v>
+      </c>
+      <c r="AA17">
+        <v>3.8</v>
       </c>
       <c r="AC17" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2258,22 +2543,25 @@
       <c r="AG17">
         <v>9.384028434753418</v>
       </c>
-      <c r="AH17" t="s">
-        <v>138</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300539</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.98</v>
@@ -2291,7 +2579,7 @@
         <v>49573.28</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>13</v>
@@ -2333,10 +2621,25 @@
         <v>-0.05</v>
       </c>
       <c r="X18" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y18">
+        <v>0.65</v>
+      </c>
+      <c r="Z18">
+        <v>51.88</v>
+      </c>
+      <c r="AA18">
+        <v>2.92</v>
       </c>
       <c r="AC18" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2344,22 +2647,25 @@
       <c r="AG18">
         <v>0.6653491258621216</v>
       </c>
-      <c r="AH18" t="s">
-        <v>138</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300602</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-1.19</v>
@@ -2377,7 +2683,7 @@
         <v>36743.55</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2419,10 +2725,25 @@
         <v>-0.11</v>
       </c>
       <c r="X19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y19">
+        <v>-0.64</v>
+      </c>
+      <c r="Z19">
+        <v>34.58</v>
+      </c>
+      <c r="AA19">
+        <v>-0.75</v>
       </c>
       <c r="AC19" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2430,22 +2751,25 @@
       <c r="AG19">
         <v>3.050271272659302</v>
       </c>
-      <c r="AH19" t="s">
-        <v>138</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300604</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2463,7 +2787,7 @@
         <v>120577.06</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20">
         <v>20</v>
@@ -2505,10 +2829,25 @@
         <v>0.47</v>
       </c>
       <c r="X20" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y20">
+        <v>20</v>
+      </c>
+      <c r="Z20">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="AA20">
+        <v>20</v>
       </c>
       <c r="AC20" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2516,22 +2855,25 @@
       <c r="AG20">
         <v>2.763896703720093</v>
       </c>
-      <c r="AH20" t="s">
-        <v>138</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300620</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-4.2</v>
@@ -2549,7 +2891,7 @@
         <v>131910.46</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2591,10 +2933,25 @@
         <v>-0.21</v>
       </c>
       <c r="X21" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y21">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="Z21">
+        <v>128.15</v>
+      </c>
+      <c r="AA21">
+        <v>-3.21</v>
       </c>
       <c r="AC21" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2602,22 +2959,25 @@
       <c r="AG21">
         <v>-9.158780097961426</v>
       </c>
-      <c r="AH21" t="s">
-        <v>138</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300680</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>4.99</v>
@@ -2635,7 +2995,7 @@
         <v>33970.12</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2677,10 +3037,25 @@
         <v>0.35</v>
       </c>
       <c r="X22" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y22">
+        <v>2.41</v>
+      </c>
+      <c r="Z22">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>5.97</v>
       </c>
       <c r="AC22" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2688,22 +3063,25 @@
       <c r="AG22">
         <v>3.190604448318481</v>
       </c>
-      <c r="AH22" t="s">
-        <v>138</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300684</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.59</v>
@@ -2721,7 +3099,7 @@
         <v>33238.36</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2763,10 +3141,25 @@
         <v>-0.15</v>
       </c>
       <c r="X23" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y23">
+        <v>0.12</v>
+      </c>
+      <c r="Z23">
+        <v>42.65</v>
+      </c>
+      <c r="AA23">
+        <v>-2.96</v>
       </c>
       <c r="AC23" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2774,22 +3167,25 @@
       <c r="AG23">
         <v>0.2482550889253616</v>
       </c>
-      <c r="AH23" t="s">
-        <v>138</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300814</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.9</v>
@@ -2807,7 +3203,7 @@
         <v>22905.94</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2849,10 +3245,25 @@
         <v>0.37</v>
       </c>
       <c r="X24" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y24">
+        <v>-0.95</v>
+      </c>
+      <c r="Z24">
+        <v>52.49</v>
+      </c>
+      <c r="AA24">
+        <v>0.02</v>
       </c>
       <c r="AC24" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2860,22 +3271,25 @@
       <c r="AG24">
         <v>3.938734531402588</v>
       </c>
-      <c r="AH24" t="s">
-        <v>138</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300959</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-3.33</v>
@@ -2893,7 +3307,7 @@
         <v>26258.52</v>
       </c>
       <c r="J25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2935,10 +3349,25 @@
         <v>-0.37</v>
       </c>
       <c r="X25" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y25">
+        <v>-2.64</v>
+      </c>
+      <c r="Z25">
+        <v>82</v>
+      </c>
+      <c r="AA25">
+        <v>6.03</v>
       </c>
       <c r="AC25" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2946,22 +3375,25 @@
       <c r="AG25">
         <v>-0.3661887049674988</v>
       </c>
-      <c r="AH25" t="s">
-        <v>138</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300993</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-3.39</v>
@@ -2979,7 +3411,7 @@
         <v>22289.8</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3020,8 +3452,23 @@
       <c r="W26">
         <v>0.22</v>
       </c>
+      <c r="Y26">
+        <v>-10.81</v>
+      </c>
+      <c r="Z26">
+        <v>21.17</v>
+      </c>
+      <c r="AA26">
+        <v>-2.22</v>
+      </c>
       <c r="AC26" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3029,22 +3476,25 @@
       <c r="AG26">
         <v>22.59568405151367</v>
       </c>
-      <c r="AH26" t="s">
-        <v>138</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301008</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>6.82</v>
@@ -3062,7 +3512,7 @@
         <v>38210.29</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3104,10 +3554,25 @@
         <v>0.58</v>
       </c>
       <c r="X27" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y27">
+        <v>-5.74</v>
+      </c>
+      <c r="Z27">
+        <v>51.74</v>
+      </c>
+      <c r="AA27">
+        <v>-0.14</v>
       </c>
       <c r="AC27" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3115,22 +3580,25 @@
       <c r="AG27">
         <v>4.068159580230713</v>
       </c>
-      <c r="AH27" t="s">
-        <v>138</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301013</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.97</v>
@@ -3148,7 +3616,7 @@
         <v>61166.84</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3190,10 +3658,25 @@
         <v>0.63</v>
       </c>
       <c r="X28" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y28">
+        <v>-4.52</v>
+      </c>
+      <c r="Z28">
+        <v>29.48</v>
+      </c>
+      <c r="AA28">
+        <v>-1.4</v>
       </c>
       <c r="AC28" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3201,22 +3684,25 @@
       <c r="AG28">
         <v>1.364886164665222</v>
       </c>
-      <c r="AH28" t="s">
-        <v>138</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301018</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -3234,7 +3720,7 @@
         <v>31177.88</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -3276,10 +3762,25 @@
         <v>0.13</v>
       </c>
       <c r="X29" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y29">
+        <v>-2.85</v>
+      </c>
+      <c r="Z29">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="AA29">
+        <v>-4.88</v>
       </c>
       <c r="AC29" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3287,22 +3788,25 @@
       <c r="AG29">
         <v>18.19600486755371</v>
       </c>
-      <c r="AH29" t="s">
-        <v>139</v>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301150</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.2</v>
@@ -3320,7 +3824,7 @@
         <v>13948.33</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30">
         <v>16</v>
@@ -3362,10 +3866,25 @@
         <v>-0.08</v>
       </c>
       <c r="X30" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y30">
+        <v>-1.93</v>
+      </c>
+      <c r="Z30">
+        <v>41.99</v>
+      </c>
+      <c r="AA30">
+        <v>-0.73</v>
       </c>
       <c r="AC30" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3373,22 +3892,25 @@
       <c r="AG30">
         <v>2.075302839279175</v>
       </c>
-      <c r="AH30" t="s">
-        <v>138</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301307</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.97</v>
@@ -3406,7 +3928,7 @@
         <v>12838.36</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -3448,10 +3970,25 @@
         <v>0.1</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y31">
+        <v>-0.45</v>
+      </c>
+      <c r="Z31">
+        <v>43.21</v>
+      </c>
+      <c r="AA31">
+        <v>6.98</v>
       </c>
       <c r="AC31" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3459,22 +3996,25 @@
       <c r="AG31">
         <v>4.288983345031738</v>
       </c>
-      <c r="AH31" t="s">
-        <v>138</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301308</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.33</v>
@@ -3492,7 +4032,7 @@
         <v>75472.22</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3534,10 +4074,25 @@
         <v>0.03</v>
       </c>
       <c r="X32" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y32">
+        <v>4.55</v>
+      </c>
+      <c r="Z32">
+        <v>157.77</v>
+      </c>
+      <c r="AA32">
+        <v>12.51</v>
       </c>
       <c r="AC32" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3545,22 +4100,25 @@
       <c r="AG32">
         <v>2.669881820678711</v>
       </c>
-      <c r="AH32" t="s">
-        <v>138</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301389</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.16</v>
@@ -3578,7 +4136,7 @@
         <v>40048.27</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3620,10 +4178,25 @@
         <v>0.01</v>
       </c>
       <c r="X33" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y33">
+        <v>-4.11</v>
+      </c>
+      <c r="Z33">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="AA33">
+        <v>-4.53</v>
       </c>
       <c r="AC33" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3631,22 +4204,25 @@
       <c r="AG33">
         <v>4.74564266204834</v>
       </c>
-      <c r="AH33" t="s">
-        <v>138</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301413</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.14</v>
@@ -3664,7 +4240,7 @@
         <v>16705.4</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34">
         <v>23</v>
@@ -3706,10 +4282,25 @@
         <v>-0.17</v>
       </c>
       <c r="X34" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y34">
+        <v>-1.66</v>
+      </c>
+      <c r="Z34">
+        <v>170.85</v>
+      </c>
+      <c r="AA34">
+        <v>-2.62</v>
       </c>
       <c r="AC34" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3717,22 +4308,25 @@
       <c r="AG34">
         <v>0.5094467997550964</v>
       </c>
-      <c r="AH34" t="s">
-        <v>138</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301421</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>4.12</v>
@@ -3750,7 +4344,7 @@
         <v>56535.03</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3792,10 +4386,25 @@
         <v>0.09</v>
       </c>
       <c r="X35" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y35">
+        <v>-1.47</v>
+      </c>
+      <c r="Z35">
+        <v>142.09</v>
+      </c>
+      <c r="AA35">
+        <v>26.36</v>
       </c>
       <c r="AC35" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3803,22 +4412,25 @@
       <c r="AG35">
         <v>6.089164733886719</v>
       </c>
-      <c r="AH35" t="s">
-        <v>138</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301488</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0.4</v>
@@ -3836,7 +4448,7 @@
         <v>27411.64</v>
       </c>
       <c r="J36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K36">
         <v>20</v>
@@ -3878,10 +4490,25 @@
         <v>-0.03</v>
       </c>
       <c r="X36" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y36">
+        <v>-7.34</v>
+      </c>
+      <c r="Z36">
+        <v>187</v>
+      </c>
+      <c r="AA36">
+        <v>1.06</v>
       </c>
       <c r="AC36" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3889,22 +4516,25 @@
       <c r="AG36">
         <v>4.106005668640137</v>
       </c>
-      <c r="AH36" t="s">
-        <v>138</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301489</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.62</v>
@@ -3922,7 +4552,7 @@
         <v>31725.26</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37">
         <v>11</v>
@@ -3964,10 +4594,25 @@
         <v>0.17</v>
       </c>
       <c r="X37" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y37">
+        <v>1.86</v>
+      </c>
+      <c r="Z37">
+        <v>275.28</v>
+      </c>
+      <c r="AA37">
+        <v>0.1</v>
       </c>
       <c r="AC37" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3975,22 +4620,25 @@
       <c r="AG37">
         <v>8.084698677062988</v>
       </c>
-      <c r="AH37" t="s">
-        <v>138</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301550</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.06</v>
@@ -4008,7 +4656,7 @@
         <v>14125.59</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>5</v>
@@ -4050,10 +4698,25 @@
         <v>0.13</v>
       </c>
       <c r="X38" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y38">
+        <v>2.55</v>
+      </c>
+      <c r="Z38">
+        <v>136.88</v>
+      </c>
+      <c r="AA38">
+        <v>2.79</v>
       </c>
       <c r="AC38" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4061,22 +4724,25 @@
       <c r="AG38">
         <v>1.672679424285889</v>
       </c>
-      <c r="AH38" t="s">
-        <v>138</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688041</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>0.01</v>
@@ -4094,7 +4760,7 @@
         <v>216640.49</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4136,10 +4802,25 @@
         <v>-0.01</v>
       </c>
       <c r="X39" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y39">
+        <v>2.05</v>
+      </c>
+      <c r="Z39">
+        <v>267</v>
+      </c>
+      <c r="AA39">
+        <v>2.2</v>
       </c>
       <c r="AC39" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4147,22 +4828,25 @@
       <c r="AG39">
         <v>-8.303794860839844</v>
       </c>
-      <c r="AH39" t="s">
-        <v>138</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688110</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.34</v>
@@ -4180,7 +4864,7 @@
         <v>78125.64</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4222,10 +4906,25 @@
         <v>-0.09</v>
       </c>
       <c r="X40" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y40">
+        <v>-1.65</v>
+      </c>
+      <c r="Z40">
+        <v>119</v>
+      </c>
+      <c r="AA40">
+        <v>-1.82</v>
       </c>
       <c r="AC40" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4233,22 +4932,25 @@
       <c r="AG40">
         <v>17.995361328125</v>
       </c>
-      <c r="AH40" t="s">
-        <v>138</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688123</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>15.96</v>
@@ -4266,7 +4968,7 @@
         <v>77672.08</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4307,8 +5009,23 @@
       <c r="W41">
         <v>0.15</v>
       </c>
+      <c r="Y41">
+        <v>6.92</v>
+      </c>
+      <c r="Z41">
+        <v>133.82</v>
+      </c>
+      <c r="AA41">
+        <v>6.96</v>
+      </c>
       <c r="AC41" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4316,22 +5033,25 @@
       <c r="AG41">
         <v>6.336188793182373</v>
       </c>
-      <c r="AH41" t="s">
-        <v>138</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688135</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.23</v>
@@ -4349,7 +5069,7 @@
         <v>19221.42</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K42">
         <v>16</v>
@@ -4391,10 +5111,25 @@
         <v>0.09</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y42">
+        <v>-0.05</v>
+      </c>
+      <c r="Z42">
+        <v>39.48</v>
+      </c>
+      <c r="AA42">
+        <v>11.49</v>
       </c>
       <c r="AC42" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4402,22 +5137,25 @@
       <c r="AG42">
         <v>3.084124088287354</v>
       </c>
-      <c r="AH42" t="s">
-        <v>138</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688167</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.33</v>
@@ -4435,7 +5173,7 @@
         <v>28311.56</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43">
         <v>13</v>
@@ -4477,10 +5215,25 @@
         <v>-0.18</v>
       </c>
       <c r="X43" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y43">
+        <v>-0.26</v>
+      </c>
+      <c r="Z43">
+        <v>171.74</v>
+      </c>
+      <c r="AA43">
+        <v>-0.15</v>
       </c>
       <c r="AC43" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4488,22 +5241,25 @@
       <c r="AG43">
         <v>2.093725442886353</v>
       </c>
-      <c r="AH43" t="s">
-        <v>138</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688195</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.21</v>
@@ -4521,7 +5277,7 @@
         <v>44909.56</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K44">
         <v>27</v>
@@ -4563,10 +5319,25 @@
         <v>-0.19</v>
       </c>
       <c r="X44" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y44">
+        <v>-4.47</v>
+      </c>
+      <c r="Z44">
+        <v>142</v>
+      </c>
+      <c r="AA44">
+        <v>3.66</v>
       </c>
       <c r="AC44" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4574,22 +5345,25 @@
       <c r="AG44">
         <v>3.232228755950928</v>
       </c>
-      <c r="AH44" t="s">
-        <v>138</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688205</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-4.89</v>
@@ -4607,7 +5381,7 @@
         <v>68674</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4649,10 +5423,25 @@
         <v>-0.27</v>
       </c>
       <c r="X45" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y45">
+        <v>-2.71</v>
+      </c>
+      <c r="Z45">
+        <v>131.99</v>
+      </c>
+      <c r="AA45">
+        <v>-6.23</v>
       </c>
       <c r="AC45" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4660,22 +5449,25 @@
       <c r="AG45">
         <v>1.745232820510864</v>
       </c>
-      <c r="AH45" t="s">
-        <v>138</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688228</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-7.25</v>
@@ -4693,7 +5485,7 @@
         <v>20762.85</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K46">
         <v>10</v>
@@ -4735,10 +5527,25 @@
         <v>-0.06</v>
       </c>
       <c r="X46" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y46">
+        <v>2.27</v>
+      </c>
+      <c r="Z46">
+        <v>200.88</v>
+      </c>
+      <c r="AA46">
+        <v>1.21</v>
       </c>
       <c r="AC46" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4746,22 +5553,25 @@
       <c r="AG46">
         <v>-0.02693747915327549</v>
       </c>
-      <c r="AH46" t="s">
-        <v>138</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688400</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-2.11</v>
@@ -4779,7 +5589,7 @@
         <v>47346.08</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -4820,8 +5630,23 @@
       <c r="W47">
         <v>-0.1</v>
       </c>
+      <c r="Y47">
+        <v>-5.28</v>
+      </c>
+      <c r="Z47">
+        <v>51.68</v>
+      </c>
+      <c r="AA47">
+        <v>-1.54</v>
+      </c>
       <c r="AC47" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4829,22 +5654,25 @@
       <c r="AG47">
         <v>-5.415214538574219</v>
       </c>
-      <c r="AH47" t="s">
-        <v>138</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688411</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>16.95</v>
@@ -4862,7 +5690,7 @@
         <v>48485.32</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K48">
         <v>16</v>
@@ -4904,10 +5732,25 @@
         <v>0.76</v>
       </c>
       <c r="X48" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y48">
+        <v>4.3</v>
+      </c>
+      <c r="Z48">
+        <v>278.2</v>
+      </c>
+      <c r="AA48">
+        <v>9.390000000000001</v>
       </c>
       <c r="AC48" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4915,22 +5758,25 @@
       <c r="AG48">
         <v>1.567981004714966</v>
       </c>
-      <c r="AH48" t="s">
-        <v>138</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688498</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4948,7 +5794,7 @@
         <v>41519</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K49">
         <v>10</v>
@@ -4990,10 +5836,25 @@
         <v>0.12</v>
       </c>
       <c r="X49" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y49">
+        <v>-1.49</v>
+      </c>
+      <c r="Z49">
+        <v>386.42</v>
+      </c>
+      <c r="AA49">
+        <v>-2.17</v>
       </c>
       <c r="AC49" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5001,22 +5862,25 @@
       <c r="AG49">
         <v>3.392195224761963</v>
       </c>
-      <c r="AH49" t="s">
-        <v>138</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688521</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0.25</v>
@@ -5034,7 +5898,7 @@
         <v>154065.97</v>
       </c>
       <c r="J50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K50">
         <v>15</v>
@@ -5076,10 +5940,25 @@
         <v>-0.08</v>
       </c>
       <c r="X50" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y50">
+        <v>-3.35</v>
+      </c>
+      <c r="Z50">
+        <v>205.88</v>
+      </c>
+      <c r="AA50">
+        <v>1.17</v>
       </c>
       <c r="AC50" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5087,22 +5966,25 @@
       <c r="AG50">
         <v>3.213683366775513</v>
       </c>
-      <c r="AH50" t="s">
-        <v>138</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688525</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>0.83</v>
@@ -5120,7 +6002,7 @@
         <v>43393.35</v>
       </c>
       <c r="J51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5162,10 +6044,25 @@
         <v>0.04</v>
       </c>
       <c r="X51" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y51">
+        <v>6.51</v>
+      </c>
+      <c r="Z51">
+        <v>95.18000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>11.74</v>
       </c>
       <c r="AC51" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5173,22 +6070,25 @@
       <c r="AG51">
         <v>4.227005958557129</v>
       </c>
-      <c r="AH51" t="s">
-        <v>138</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688627</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>15.82</v>
@@ -5206,7 +6106,7 @@
         <v>52789.05</v>
       </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5248,10 +6148,25 @@
         <v>0.3</v>
       </c>
       <c r="X52" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>188.95</v>
+      </c>
+      <c r="AA52">
+        <v>6.63</v>
       </c>
       <c r="AC52" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5259,22 +6174,25 @@
       <c r="AG52">
         <v>12.25587940216064</v>
       </c>
-      <c r="AH52" t="s">
-        <v>138</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688629</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-1.76</v>
@@ -5292,7 +6210,7 @@
         <v>39005.92</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -5334,10 +6252,25 @@
         <v>-0.17</v>
       </c>
       <c r="X53" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y53">
+        <v>-0.78</v>
+      </c>
+      <c r="Z53">
+        <v>103.62</v>
+      </c>
+      <c r="AA53">
+        <v>-2.06</v>
       </c>
       <c r="AC53" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5345,22 +6278,25 @@
       <c r="AG53">
         <v>8.294954299926758</v>
       </c>
-      <c r="AH53" t="s">
-        <v>138</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688678</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-3.48</v>
@@ -5378,7 +6314,7 @@
         <v>16870.94</v>
       </c>
       <c r="J54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5420,10 +6356,25 @@
         <v>-0.21</v>
       </c>
       <c r="X54" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y54">
+        <v>-3.26</v>
+      </c>
+      <c r="Z54">
+        <v>37.37</v>
+      </c>
+      <c r="AA54">
+        <v>6.07</v>
       </c>
       <c r="AC54" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5431,22 +6382,25 @@
       <c r="AG54">
         <v>10.8109016418457</v>
       </c>
-      <c r="AH54" t="s">
-        <v>138</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688766</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.22</v>
@@ -5464,7 +6418,7 @@
         <v>35435.35</v>
       </c>
       <c r="J55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5506,10 +6460,25 @@
         <v>-0.04</v>
       </c>
       <c r="X55" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y55">
+        <v>2.35</v>
+      </c>
+      <c r="Z55">
+        <v>110.49</v>
+      </c>
+      <c r="AA55">
+        <v>1.84</v>
       </c>
       <c r="AC55" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5517,22 +6486,25 @@
       <c r="AG55">
         <v>5.033654689788818</v>
       </c>
-      <c r="AH55" t="s">
-        <v>138</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688981</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-1.04</v>
@@ -5550,7 +6522,7 @@
         <v>276744.45</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K56">
         <v>9</v>
@@ -5592,10 +6564,25 @@
         <v>-0.11</v>
       </c>
       <c r="X56" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y56">
+        <v>5.03</v>
+      </c>
+      <c r="Z56">
+        <v>137.98</v>
+      </c>
+      <c r="AA56">
+        <v>8.15</v>
       </c>
       <c r="AC56" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5603,8 +6590,11 @@
       <c r="AG56">
         <v>-6.603521347045898</v>
       </c>
-      <c r="AH56" t="s">
-        <v>138</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
